--- a/DragAndDrop/Assets/5.Data/Rain_storm_data.xlsx
+++ b/DragAndDrop/Assets/5.Data/Rain_storm_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\졸업작품 프로젝트\idle\DragAndDrop\Assets\5.Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01.junheeStudy\Team_Project\idle\DragAndDrop\Assets\5.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A44F811-2B30-4427-963E-84564553E21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="10380"/>
+    <workbookView xWindow="2145" yWindow="3885" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>time</t>
   </si>
@@ -32,11 +33,15 @@
     <t>action_num</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,11 +379,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -386,237 +391,204 @@
     <col min="2" max="2" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>6.75</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>7.125</v>
+        <v>10.5</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>7.31</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7.5</v>
+        <v>13.5</v>
       </c>
       <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>16.5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>8.06</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8.25</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9.75</v>
+        <v>18.75</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10.119999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>10.315</v>
+        <v>20.25</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>10.5</v>
+        <v>106.5</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>11.06</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>11.25</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>12.75</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>13.12</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>13.315</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>13.5</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>14.06</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>14.25</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>15</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>15.75</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>16.12</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>16.315000000000001</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>16.5</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>17.059999999999999</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
